--- a/upload/excel/example.xlsx
+++ b/upload/excel/example.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Фотодоска" sheetId="1" r:id="rId4"/>
+    <sheet name="DromAutoAdd_tires" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Код</t>
   </si>
@@ -29,7 +29,37 @@
     <t>Модель шины</t>
   </si>
   <si>
+    <t>Город выкладки</t>
+  </si>
+  <si>
+    <t>Тип объявления</t>
+  </si>
+  <si>
     <t>Пример использования динамического атрибута</t>
+  </si>
+  <si>
+    <t>Томск</t>
+  </si>
+  <si>
+    <t>DNA Ecos ES300</t>
+  </si>
+  <si>
+    <t>Новосибирск</t>
+  </si>
+  <si>
+    <t>Аукцион</t>
+  </si>
+  <si>
+    <t>Аукцион Новосибирск</t>
+  </si>
+  <si>
+    <t>Primacy HP</t>
+  </si>
+  <si>
+    <t>ContiPremiumContact 2</t>
+  </si>
+  <si>
+    <t>Аукцион Томск</t>
   </si>
 </sst>
 </file>
@@ -372,18 +402,42 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="80" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="51.844482" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
+    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
+    <col min="14" max="14" width="9.10" bestFit="true" style="0"/>
+    <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
+    <col min="18" max="18" width="9.10" bestFit="true" style="0"/>
+    <col min="19" max="19" width="9.10" bestFit="true" style="0"/>
+    <col min="20" max="20" width="9.10" bestFit="true" style="0"/>
+    <col min="21" max="21" width="9.10" bestFit="true" style="0"/>
+    <col min="22" max="22" width="9.10" bestFit="true" style="0"/>
+    <col min="23" max="23" width="9.10" bestFit="true" style="0"/>
+    <col min="24" max="24" width="9.10" bestFit="true" style="0"/>
+    <col min="25" max="25" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,6 +452,150 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/upload/excel/example.xlsx
+++ b/upload/excel/example.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>Код</t>
   </si>
@@ -71,60 +71,372 @@
     <t>Доставка текст дром шины</t>
   </si>
   <si>
-    <t>Гарантия текст дром диски</t>
+    <t>Гарантия текст дром шины</t>
   </si>
   <si>
     <t>Адрес самовывоза Дром Шины</t>
   </si>
   <si>
-    <t>#6148 Летние Шины Bridgestone Playz PZ-X 205/50/16 (Japan) Б/п РФ</t>
-  </si>
-  <si>
-    <t>Bridgestone Playz PZ-X</t>
-  </si>
-  <si>
-    <t>205/50/16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если вы видите это объявление, значит шины не проданы. 
-Шины находятся в г. Новосибирск. Отправка до склада ТК в город размещения объявления за мой счет. 
-Продам шины с японского аукциона, без пробега по РФ. На вопрос "На мое авто подойдут?" не отвечаю. Обмен не интересен. Торг минимальный либо отсутствует. Возможен резерв товара на срок до месяца по предоплате. Продаются без дисков. Диски выложены отдельно в нашей базе. Товар б/у. 
-Количество шин: 4
-Размер: 205/50/16
-Модель шины: Bridgestone Playz PZ-X
+    <t>#1011 Летняя Пара Yokohama DNA Ecos ES300 215/40/17 (Japan) Б/у</t>
+  </si>
+  <si>
+    <t>Yokohama DNA Ecos ES300</t>
+  </si>
+  <si>
+    <t>215/40/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Читайте полностью описание и условия продажи. Находятся в г. Томск.  Отправка до склада ТК в город размещения объявления за мой счет.  
+(могу отправить по РФ РК и РБ). 
+Продам шины б/у. На вопрос "На мое авто подойдут?" не отвечаю. Обмен не интересен. 
+Торг только кнопкой (связаться) - (предложить цену).  
+Продаются без дисков. Диски выложены отдельно в нашей базе.
+Описание:
+Количество шин: 2
+Размер: 215/40/17
+Модель шины: Yokohama DNA Ecos ES300
 Made in: Japan
-Остаток протектора (мм): 7.0/7.0/7.9/8.0
-Год выпуска: 2009
-Прочее:  87V </t>
+Остаток протектора (мм): 6.5/7.0
+Год выпуска: 2010
+Прочее:  83W 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7900
+</t>
+  </si>
+  <si>
+    <t>aotomskru</t>
+  </si>
+  <si>
+    <t>Товар находится в г. Томск. Доставка до города размещения объявления включена в цену. 
+При бесплатной доставке выбор тк остается за нами. Сроки отправки товара при бесплатной доставке составляют до 4 дней.
+наличными, карта сбер, альфабанк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправляем по полной предоплате. Оплачивая товар вы подтверждаете ваше согласие с условиями сделки. Гарантия что вас не кинут и качества товара - рейтинг http://baza.drom.ru/user/wheels70/feedbacks?role=buyer . Товар б/у, имеет следы эксплуатации. Все шины осмотрены визуально, все найденные дефекты отражены на фото. После отправки выкладываем фото накладной. </t>
+  </si>
+  <si>
+    <t>N1011 Летняя Пара Yokohama DNA Ecos ES300 215/40/17 (Japan) Б/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Читайте полностью описание и условия продажи. Находятся в г. Томск.  Отправка до склада ТК в город размещения объявления за мой счет.  
+(могу отправить по РФ РК и РБ). 
+Продам шины б/у. На вопрос "На мое авто подойдут?" не отвечаю. Обмен не интересен. 
+Возможен резерв товара на срок до месяца по предоплате. 
+Продаются без дисков. Диски выложены отдельно в нашей базе.
+Описание:
+Количество шин: 2
+Размер: 215/40/17
+Модель шины: Yokohama DNA Ecos ES300
+Made in: Japan
+Остаток протектора (мм): 6.5/7.0
+Год выпуска: 2010
+Прочее:  83W 
+</t>
+  </si>
+  <si>
+    <t>wheels22</t>
+  </si>
+  <si>
+    <t>Товар находится в г. Томск. Доставка до города размещения объявления включена в цену. При бесплатной доставке выбор тк остается за нами. Сроки отправки товара при бесплатной доставке составляют до 4 дней. наличными, карта сбер, альфабанк</t>
+  </si>
+  <si>
+    <t>wheels31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Читайте полностью описание и условия продажи. Находятся в г. Томск.  Цена указана с учетом доставки на наш склад в г. Владивосток 
+(могу отправить по РФ РК и РБ). 
+Продам шины б/у. На вопрос "На мое авто подойдут?" не отвечаю. Обмен не интересен. 
+Торг только кнопкой (связаться) - (предложить цену).  
+Продаются без дисков. Диски выложены отдельно в нашей базе.
+Описание:
+Количество шин: 2
+Размер: 215/40/17
+Модель шины: Yokohama DNA Ecos ES300
+Made in: Japan
+Остаток протектора (мм): 6.5/7.0
+Год выпуска: 2010
+Прочее:  83W 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Читайте полностью описание и условия продажи. Находятся в г. Томск.  Цена указана с учетом доставки на наш склад в г. Владивосток 
+(могу отправить по РФ РК и РБ). 
+Продам шины б/у. На вопрос "На мое авто подойдут?" не отвечаю. Обмен не интересен. 
+Возможен резерв товара на срок до месяца по предоплате. 
+Продаются без дисков. Диски выложены отдельно в нашей базе.
+Описание:
+Количество шин: 2
+Размер: 215/40/17
+Модель шины: Yokohama DNA Ecos ES300
+Made in: Japan
+Остаток протектора (мм): 6.5/7.0
+Год выпуска: 2010
+Прочее:  83W 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">наличные, указана конечная цена с доставкой на наш склад в г. Томск. </t>
+  </si>
+  <si>
+    <t>Товар б/у, осмотр на месте, проверка на ближайшем шиномонтаже, ВОЗВРАТА И ГАРАНТИЙ - НЕТ.</t>
+  </si>
+  <si>
+    <t>wheels34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Товар находится в г. Томск. Доставка до города размещения объявления включена в цену. При бесплатной доставке выбор тк остается за нами. Сроки отправки товара при бесплатной доставке составляют до 4 дней. наличными, карта сбер, альфабанк
+</t>
+  </si>
+  <si>
+    <t>wheels36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Читайте полностью описание и условия продажи. Находятся в г. Томск.  Цена указана с учетом доставки на наш склад в г. Екатеринбург 
+(могу отправить по РФ РК и РБ). 
+Продам шины б/у. На вопрос "На мое авто подойдут?" не отвечаю. Обмен не интересен. 
+Торг только кнопкой (связаться) - (предложить цену).  
+Продаются без дисков. Диски выложены отдельно в нашей базе.
+Описание:
+Количество шин: 2
+Размер: 215/40/17
+Модель шины: Yokohama DNA Ecos ES300
+Made in: Japan
+Остаток протектора (мм): 6.5/7.0
+Год выпуска: 2010
+Прочее:  83W 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Читайте полностью описание и условия продажи. Находятся в г. Томск.  Цена указана с учетом доставки на наш склад в г. Екатеринбург 
+(могу отправить по РФ РК и РБ). 
+Продам шины б/у. На вопрос "На мое авто подойдут?" не отвечаю. Обмен не интересен. 
+Возможен резерв товара на срок до месяца по предоплате. 
+Продаются без дисков. Диски выложены отдельно в нашей базе.
+Описание:
+Количество шин: 2
+Размер: 215/40/17
+Модель шины: Yokohama DNA Ecos ES300
+Made in: Japan
+Остаток протектора (мм): 6.5/7.0
+Год выпуска: 2010
+Прочее:  83W 
+</t>
+  </si>
+  <si>
+    <t>UralWheels</t>
+  </si>
+  <si>
+    <t>wheels38</t>
+  </si>
+  <si>
+    <t>wheels16</t>
+  </si>
+  <si>
+    <t>wheel42</t>
+  </si>
+  <si>
+    <t>wheels23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Читайте полностью описание и условия продажи. Находятся в г. Томск.  Цена указана с учетом доставки на наш склад в г. Красноярск 
+(могу отправить по РФ РК и РБ). 
+Продам шины б/у. На вопрос "На мое авто подойдут?" не отвечаю. Обмен не интересен. 
+Торг только кнопкой (связаться) - (предложить цену).  
+Продаются без дисков. Диски выложены отдельно в нашей базе.
+Описание:
+Количество шин: 2
+Размер: 215/40/17
+Модель шины: Yokohama DNA Ecos ES300
+Made in: Japan
+Остаток протектора (мм): 6.5/7.0
+Год выпуска: 2010
+Прочее:  83W 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Читайте полностью описание и условия продажи. Находятся в г. Томск.  Цена указана с учетом доставки на наш склад в г. Красноярск 
+(могу отправить по РФ РК и РБ). 
+Продам шины б/у. На вопрос "На мое авто подойдут?" не отвечаю. Обмен не интересен. 
+Возможен резерв товара на срок до месяца по предоплате. 
+Продаются без дисков. Диски выложены отдельно в нашей базе.
+Описание:
+Количество шин: 2
+Размер: 215/40/17
+Модель шины: Yokohama DNA Ecos ES300
+Made in: Japan
+Остаток протектора (мм): 6.5/7.0
+Год выпуска: 2010
+Прочее:  83W 
+</t>
+  </si>
+  <si>
+    <t>godzilla24</t>
+  </si>
+  <si>
+    <t>wheels46</t>
+  </si>
+  <si>
+    <t>wheels77</t>
+  </si>
+  <si>
+    <t>wheels52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Читайте полностью описание и условия продажи. Находятся в г. Томск.   
+(могу отправить по РФ РК и РБ). 
+Продам шины б/у. На вопрос "На мое авто подойдут?" не отвечаю. Обмен не интересен. 
+Торг только кнопкой (связаться) - (предложить цену).  
+Продаются без дисков. Диски выложены отдельно в нашей базе.
+Описание:
+Количество шин: 2
+Размер: 215/40/17
+Модель шины: Yokohama DNA Ecos ES300
+Made in: Japan
+Остаток протектора (мм): 6.5/7.0
+Год выпуска: 2010
+Прочее:  83W 
+</t>
   </si>
   <si>
     <t>wheels70</t>
   </si>
   <si>
-    <t xml:space="preserve">Самовывоз ул. Большевистская, ТОЛЬКО по предварительной договоренности.
+    <t>Самовывоз ул. Большевистская, ТОЛЬКО по предварительной договоренности.
 Доставка по городу 500р
 Могу отправить в любой город Транспортными компаниями.
 Стоимость доставки до ТК и оформления документов на отправку 500р. за 2 или 4 шины. 
 Стоимость упаковки дисков в картон, доставки до ТК и оформления документов 500р. за 4 диска.
 Способы оплаты:
-наличными, карта сбербанк, альфабанк 
-</t>
+наличными, карта сбербанк, альфабанк</t>
   </si>
   <si>
     <t>Товар б/у, гарантий и возвратов нет. Шины проверены на наличие грыж, шишек и порезов в надутом состоянии. Остальное видно на фото. Без предоплаты доп. фото не делаю. С людьми не понимающими отличие б/у от нового товара - не работаем. 
 В подтверждение качества - наша репутация и рейтинг http://baza.drom.ru/user/wheels70/feedbacks?role=buyer</t>
   </si>
   <si>
-    <t>N6148 Летние Шины Bridgestone Playz PZ-X 205/50/16 (Japan) Б/п РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">наличные
-доставка по городу 500р
-могу отправить в любой город транспортной компанией (+500р) 
+    <t xml:space="preserve">Читайте полностью описание и условия продажи. Находятся в г. Томск.  Цена указана с учетом доставки на наш склад в г. Новосибирск 
+(могу отправить по РФ РК и РБ). 
+Продам шины б/у. На вопрос "На мое авто подойдут?" не отвечаю. Обмен не интересен. 
+Возможен резерв товара на срок до месяца по предоплате. 
+Продаются без дисков. Диски выложены отдельно в нашей базе.
+Описание:
+Количество шин: 2
+Размер: 215/40/17
+Модель шины: Yokohama DNA Ecos ES300
+Made in: Japan
+Остаток протектора (мм): 6.5/7.0
+Год выпуска: 2010
+Прочее:  83W 
 </t>
   </si>
   <si>
-    <t>Товар б/у, осмотр на месте, проверка на ближайшем шиномонтаже, ВОЗВРАТА И ГАРАНТИЙ - НЕТ.</t>
+    <t xml:space="preserve">наличные указана конечная цена с доставкой на наш склад в г. Новосибирск доставка по городу Новосибирску 500р могу отправить в любой город транспортной компанией (+500р)
+</t>
+  </si>
+  <si>
+    <t>wheels61</t>
+  </si>
+  <si>
+    <t>wheels79</t>
+  </si>
+  <si>
+    <t>wheels26</t>
+  </si>
+  <si>
+    <t>wheesl86</t>
+  </si>
+  <si>
+    <t>wheel72</t>
+  </si>
+  <si>
+    <t>wheels3</t>
+  </si>
+  <si>
+    <t>wheels174</t>
+  </si>
+  <si>
+    <t>wheels75</t>
+  </si>
+  <si>
+    <t>Читайте полностью описание и условия продажи. Находятся в г. Томск.   
+(могу отправить по РФ РК и РБ). 
+Продам шины б/у. На вопрос "На мое авто подойдут?" не отвечаю. Обмен не интересен. 
+Торг только кнопкой (связаться) - (предложить цену).  
+Продаются без дисков. Диски выложены отдельно в нашей базе.
+Описание:
+Количество шин: 2
+Размер: 215/40/17
+Модель шины: Yokohama DNA Ecos ES300
+Made in: Japan
+Остаток протектора (мм): 6.5/7.0
+Год выпуска: 2010
+Прочее:  83W 
+Возьму Ваши шины и диски на реализацию.</t>
+  </si>
+  <si>
+    <t>Самовывоз г. Томск, район пл. Южной, ТОЛЬКО по предварительной договоренности по телефону 977-327.
+По предоплате могу доставить по г. Томску
+Отправляю в регионы любой ТК на ваш выбор
+Предлагается: ПЭК, РАТЭК, Деловые линии, Желдорэкспедиция, Автотрейдинг, Кит, Энергия. 
+Стоимость доставки до тк и оформления документов на отправку 300р. за 2 или 4 шины. 
+Стоимость упаковки дисков в картон, доставки до тк и оформления документов 400р. за 4 диска.
+Стоимость и сроки доставки до вашего города узнавайте на сайте ТК 
+1. Выбираете тк
+2. Вводите название тк в гугл
+3. Переходите на сайте в раздел \"калькулятор\". 
+Приблизительные параметры комплекта резины: 0,35м2 - 45кг.
+Приблизительные параметры комплекта дисков: 0,22м2 - 45кг.
+Приблизительные параметры комплекта колес: 0,4м2 - 85кг.
+Способы оплаты:
+наличными, карта сбербанк, альфабанк</t>
+  </si>
+  <si>
+    <t>Гарантия отсутствия грыж и сквозных порезов. Иных гарантий, а так же возвратов - нет. Возврата по причине неверного выбора размера и т.п. - НЕТ!
+1. Для местных - осмотр на месте, проверка на шиномонтаже ул. Мокрушина 9 за ваш счет, с учетом разумных затрат моего времени. Товар б/у, может иметь следы эксплуатации, существенно отличаться от нового. При сохранении возможности использования, претензии не принимаются. 
+2. Для регионов - высылаем только по предоплате. Гарантия, что вас не кинут и соответствия качества - наш рейтинг http://baza.drom.ru/user/wheels70/feedbacks?role=buyer а так же большое количество продаваемых лотов. После отправки получаете фото накладной.
+Шины проверены на наличие грыж, шишек и порезов в надутом состоянии. Остальное видно на фото. Без предоплаты доп. фото не делаю. С людьми не понимающими отличие б/у от нового товара - не работаем. 
+В подтверждение качества - наша репутация и рейтинг http://baza.drom.ru/user/wheels70/feedbacks?role=buyer</t>
+  </si>
+  <si>
+    <t>Читайте полностью описание и условия продажи. Находятся в г. Томск.   
+(могу отправить по РФ РК и РБ). 
+Продам шины б/у. На вопрос "На мое авто подойдут?" не отвечаю. Обмен не интересен. 
+Возможен резерв товара на срок до месяца по предоплате. 
+Продаются без дисков. Диски выложены отдельно в нашей базе.
+Описание:
+Количество шин: 2
+Размер: 215/40/17
+Модель шины: Yokohama DNA Ecos ES300
+Made in: Japan
+Остаток протектора (мм): 6.5/7.0
+Год выпуска: 2010
+Прочее:  83W 
+Возьму Ваши шины и диски на реализацию.</t>
+  </si>
+  <si>
+    <t>kolesotomskru</t>
+  </si>
+  <si>
+    <t>наличные
+доставка по городу 300р
+могу отправить в любой город транспортной компанией (+400р)</t>
+  </si>
+  <si>
+    <t>wheels63</t>
+  </si>
+  <si>
+    <t>wheels58</t>
+  </si>
+  <si>
+    <t>wheel63</t>
+  </si>
+  <si>
+    <t>wheels18</t>
+  </si>
+  <si>
+    <t>wheels17</t>
   </si>
 </sst>
 </file>
@@ -467,23 +779,23 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="77.695313" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="75.410156" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="332.633057" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="160.389404" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="16.424561" bestFit="true" customWidth="true" style="0"/>
@@ -492,8 +804,8 @@
     <col min="15" max="15" width="34.134521" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="29.421387" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="109.544678" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="277.075195" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="280.645752" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="426.895752" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="31.706543" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="9.10" bestFit="true" style="0"/>
     <col min="22" max="22" width="9.10" bestFit="true" style="0"/>
@@ -566,25 +878,25 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1">
-        <v>6148</v>
+        <v>1011</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -595,90 +907,3314 @@
       <c r="J2" s="1">
         <v>2</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>646</v>
+        <v>95</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1">
-        <v>500</v>
-      </c>
-      <c r="P2" s="1">
-        <v>500</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1">
-        <v>6148</v>
+        <v>1011</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>95</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>109</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>109</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1">
+        <v>300</v>
+      </c>
+      <c r="P6" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3659593</v>
+      </c>
+      <c r="O7" s="1">
+        <v>300</v>
+      </c>
+      <c r="P7" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>199</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>199</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>168</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>168</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>277</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>277</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>340</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>340</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>354</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>354</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>438</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>438</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>429</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>429</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>451</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>451</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>495</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>495</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>98534</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>98534</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
         <v>646</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O30" s="1">
+        <v>500</v>
+      </c>
+      <c r="P30" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>646</v>
+      </c>
+      <c r="N31" s="1">
         <v>3525927</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O31" s="1">
         <v>500</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P31" s="1">
         <v>500</v>
       </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>722</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="1"/>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>722</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3662536</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>795</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>795</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>10</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>829</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>829</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>10</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>880</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <v>880</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>10</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <v>910</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1">
+        <v>910</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>10</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>980</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>10</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>980</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>10</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
+        <v>995</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>10</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>995</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1045</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1045</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>10</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1046</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>10</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1046</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <v>940</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O50" s="1">
+        <v>300</v>
+      </c>
+      <c r="P50" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>1</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
+        <v>940</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O51" s="1">
+        <v>300</v>
+      </c>
+      <c r="P51" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>1</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>10</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>827</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>10</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
+        <v>827</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>10</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
+        <v>741</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>10</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>741</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>10</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>934</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>10</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1">
+        <v>934</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>10</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="1">
+        <v>2</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
+        <v>341</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>10</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>341</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="1">
+        <v>2</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1">
+        <v>505</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>10</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1">
+        <v>505</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
